--- a/DOC/教育資料/競合の手動対応.xlsx
+++ b/DOC/教育資料/競合の手動対応.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\教育資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C863D27C-5283-42E7-9385-6CA4F9391479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED732F9D-B028-4142-8A9C-B86F84FE543B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2460" yWindow="1470" windowWidth="27735" windowHeight="14310" xr2:uid="{F6282DC9-FC7A-4F87-87D4-14FCBEED60DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6282DC9-FC7A-4F87-87D4-14FCBEED60DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Conflic" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PULL 時マージされない。</t>
     <rPh sb="5" eb="6">
@@ -227,6 +227,53 @@
     <t>成功</t>
     <rPh sb="0" eb="2">
       <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ行を修正された場合、「置換」操作後自動マージされた場合があります。</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場合、対象ファイルを手動修正して、コミット＆プッシュします。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1179,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4156DEB3-10C4-4138-A7B0-30C44F1F0E1D}">
-  <dimension ref="A2:F311"/>
+  <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1470,9 +1517,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B332" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B333" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/教育資料/競合の手動対応.xlsx
+++ b/DOC/教育資料/競合の手動対応.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\教育資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED732F9D-B028-4142-8A9C-B86F84FE543B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C43748-9632-4578-8133-27C6C43BB0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6282DC9-FC7A-4F87-87D4-14FCBEED60DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F6282DC9-FC7A-4F87-87D4-14FCBEED60DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Conflic" sheetId="8" r:id="rId1"/>
+    <sheet name="Conflic‐旧" sheetId="8" r:id="rId1"/>
+    <sheet name="競合対応" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>PULL 時マージされない。</t>
     <rPh sb="5" eb="6">
@@ -274,6 +275,226 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合が発生しました。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム→　ワークスペースを同期化</t>
+    <rPh sb="13" eb="16">
+      <t>ドウキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合ファイルをコミットする。（自分が修正した内容はまずローカルGitへ保存</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PULL（リモートGitからローカルGitにマージする）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合所に、手動で修正する</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージ済みとマーク</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージエクスプローラーへ戻る、コミット。</t>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（手動マージの結果は一旦ローカルGitへ保存する）</t>
+    <rPh sb="1" eb="3">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップストリームへプッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMMIT＆PUSH前</t>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合発生</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMMITのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（リモート＋ローカルの内容がEclipseにマージされ）</t>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同期化画面マージ済みマーク</t>
+    <rPh sb="0" eb="3">
+      <t>ドウキカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（PULLしてなく場合？？？？）</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同期化画面でプッシュ</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（完了）</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -282,7 +503,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +528,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,11 +573,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,6 +1170,803 @@
         <a:xfrm>
           <a:off x="866775" y="74056875"/>
           <a:ext cx="6154009" cy="4248743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>506618</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>220135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9D1122-4884-4BE0-99DC-316EAAF896F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="723900"/>
+          <a:ext cx="12851018" cy="7592485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 処理 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4F119C-7C48-410B-82C7-D86060985CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="2457450"/>
+          <a:ext cx="2114550" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02F1BE1-7ADD-4504-B070-5D393B3E2696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="2790825"/>
+          <a:ext cx="8667750" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5803DD-4F1D-41E9-821F-4A0E2761DC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="7629525"/>
+          <a:ext cx="2114550" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF88EA5-10D6-41DD-AAFD-7AFBD097FC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11934825" y="7858126"/>
+          <a:ext cx="1543050" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630E7453-570F-48D3-8A80-BE1E5E42C7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="9963150"/>
+          <a:ext cx="2114550" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>535197</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>134427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C603B631-9911-4709-8E15-EDDF75E5424D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8848725"/>
+          <a:ext cx="12879597" cy="7716327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A211C85-2DC3-493A-B86D-90ED136DC5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="13306425"/>
+          <a:ext cx="8877300" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EB8738-CD1C-4AA5-9673-A958814AAAD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="9791700"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>678272</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>134560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD7D098-7FAC-4245-8A50-66B3C6D72157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="16944975"/>
+          <a:ext cx="14308547" cy="8668960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21053</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>115515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C83E457-6AD7-4650-9BC8-F0FFE0A6BCDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="25936575"/>
+          <a:ext cx="14356178" cy="8707065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5648CD90-06B2-4329-B219-469941EB42AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="4531" t="4167" r="16657" b="11748"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="35299650"/>
+          <a:ext cx="14411326" cy="8648700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>128815</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E93D99-BF02-488E-9301-9BDA53975512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="44567475"/>
+          <a:ext cx="13149490" cy="7229475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B8DC70-7DC6-4132-BF68-29D7DC77E274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="1458" t="3519" r="11448" b="11841"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="52454175"/>
+          <a:ext cx="15925800" cy="8705850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4156DEB3-10C4-4138-A7B0-30C44F1F0E1D}">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1533,4 +2582,168 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74142E30-A8C1-44E6-B567-9292464D0699}">
+  <dimension ref="A3:G234"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>29</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>34</v>
+      </c>
+      <c r="B234" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>